--- a/Code/Results/Cases/Case_7_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_3/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.102498523001827</v>
+        <v>1.661226920121095</v>
       </c>
       <c r="C2">
-        <v>0.4116835661700122</v>
+        <v>0.1077094733349639</v>
       </c>
       <c r="D2">
-        <v>0.008460329198218375</v>
+        <v>0.002072976888269906</v>
       </c>
       <c r="E2">
-        <v>0.01778285359238341</v>
+        <v>0.02055142980899927</v>
       </c>
       <c r="F2">
-        <v>2.960563389795212</v>
+        <v>2.744088595678122</v>
       </c>
       <c r="G2">
-        <v>0.0008550350972593702</v>
+        <v>0.0008783996954012467</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05928523926631968</v>
+        <v>0.0763237858368484</v>
       </c>
       <c r="K2">
-        <v>0.7410879753533806</v>
+        <v>1.478418546212595</v>
       </c>
       <c r="L2">
-        <v>0.1569534155439953</v>
+        <v>0.1275129986338897</v>
       </c>
       <c r="M2">
-        <v>0.5087612696559916</v>
+        <v>0.3004517422475992</v>
       </c>
       <c r="N2">
-        <v>2.12389993485192</v>
+        <v>2.922410092992521</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.760396834527285</v>
+        <v>1.49794738118544</v>
       </c>
       <c r="C3">
-        <v>0.3550213289872488</v>
+        <v>0.09286571729822413</v>
       </c>
       <c r="D3">
-        <v>0.007448746602729983</v>
+        <v>0.002104053126307015</v>
       </c>
       <c r="E3">
-        <v>0.01746889770703852</v>
+        <v>0.02045346802535164</v>
       </c>
       <c r="F3">
-        <v>2.811488363056924</v>
+        <v>2.652655842903812</v>
       </c>
       <c r="G3">
-        <v>0.0008637585603649047</v>
+        <v>0.0008852303006960064</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06018724944490472</v>
+        <v>0.07704553059032015</v>
       </c>
       <c r="K3">
-        <v>0.6535764407655336</v>
+        <v>1.318283694407825</v>
       </c>
       <c r="L3">
-        <v>0.1455507419645699</v>
+        <v>0.1191854239635219</v>
       </c>
       <c r="M3">
-        <v>0.4562947098233394</v>
+        <v>0.2732494278155997</v>
       </c>
       <c r="N3">
-        <v>2.154668224685722</v>
+        <v>2.936813946858237</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.555069581708153</v>
+        <v>1.399844251528776</v>
       </c>
       <c r="C4">
-        <v>0.3208121457198558</v>
+        <v>0.08386352412418319</v>
       </c>
       <c r="D4">
-        <v>0.006865864358491791</v>
+        <v>0.002121915277279562</v>
       </c>
       <c r="E4">
-        <v>0.01728097518901284</v>
+        <v>0.02040665642775696</v>
       </c>
       <c r="F4">
-        <v>2.724796674220215</v>
+        <v>2.599757495352463</v>
       </c>
       <c r="G4">
-        <v>0.000869266478647166</v>
+        <v>0.0008895560861552573</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06075923779711889</v>
+        <v>0.07752759760923489</v>
       </c>
       <c r="K4">
-        <v>0.6009743166895305</v>
+        <v>1.22188227424391</v>
       </c>
       <c r="L4">
-        <v>0.1387678308474207</v>
+        <v>0.1142275975875222</v>
       </c>
       <c r="M4">
-        <v>0.4248491476338856</v>
+        <v>0.2569341832063046</v>
       </c>
       <c r="N4">
-        <v>2.175733855651785</v>
+        <v>2.947818036464781</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.472466083393556</v>
+        <v>1.360364113979756</v>
       </c>
       <c r="C5">
-        <v>0.306997718327068</v>
+        <v>0.08021904108105105</v>
       </c>
       <c r="D5">
-        <v>0.006636689750905589</v>
+        <v>0.002128847682367763</v>
       </c>
       <c r="E5">
-        <v>0.017205410395424</v>
+        <v>0.02039086939921297</v>
       </c>
       <c r="F5">
-        <v>2.690596955299313</v>
+        <v>2.578972220812545</v>
       </c>
       <c r="G5">
-        <v>0.0008715506585233641</v>
+        <v>0.0008913528880270024</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06099692413243618</v>
+        <v>0.07773370268428259</v>
       </c>
       <c r="K5">
-        <v>0.5797922305279215</v>
+        <v>1.183038589864623</v>
       </c>
       <c r="L5">
-        <v>0.1360546674158982</v>
+        <v>0.1122440728119614</v>
       </c>
       <c r="M5">
-        <v>0.4122099924919667</v>
+        <v>0.2503757151718631</v>
       </c>
       <c r="N5">
-        <v>2.184840316428037</v>
+        <v>2.952826070499256</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.458811099831166</v>
+        <v>1.353837314973248</v>
       </c>
       <c r="C6">
-        <v>0.3047109000964952</v>
+        <v>0.07961520967943159</v>
       </c>
       <c r="D6">
-        <v>0.006599105471416067</v>
+        <v>0.002129976875409945</v>
       </c>
       <c r="E6">
-        <v>0.0171929186483708</v>
+        <v>0.02038844483138291</v>
       </c>
       <c r="F6">
-        <v>2.684983754803142</v>
+        <v>2.575566192177376</v>
       </c>
       <c r="G6">
-        <v>0.0008719323824256045</v>
+        <v>0.0008916533243523644</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06103667029580029</v>
+        <v>0.07776850612401631</v>
       </c>
       <c r="K6">
-        <v>0.5762894379564756</v>
+        <v>1.176614047838626</v>
       </c>
       <c r="L6">
-        <v>0.1356071140196136</v>
+        <v>0.1119168719529569</v>
       </c>
       <c r="M6">
-        <v>0.4101213440650113</v>
+        <v>0.2492919280438635</v>
       </c>
       <c r="N6">
-        <v>2.186383286765732</v>
+        <v>2.953688743594753</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.553951384084542</v>
+        <v>1.399309848598307</v>
       </c>
       <c r="C7">
-        <v>0.3206253544487083</v>
+        <v>0.08381428153829518</v>
       </c>
       <c r="D7">
-        <v>0.006862741381471693</v>
+        <v>0.002122010219668624</v>
       </c>
       <c r="E7">
-        <v>0.01727995224043188</v>
+        <v>0.02040643028278133</v>
       </c>
       <c r="F7">
-        <v>2.724330991347912</v>
+        <v>2.599474111151281</v>
       </c>
       <c r="G7">
-        <v>0.0008692971214051624</v>
+        <v>0.0008895801796003815</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06076242466565773</v>
+        <v>0.07753033826593914</v>
       </c>
       <c r="K7">
-        <v>0.6006876590014514</v>
+        <v>1.221356684770541</v>
       </c>
       <c r="L7">
-        <v>0.1387310390108496</v>
+        <v>0.11420070080068</v>
       </c>
       <c r="M7">
-        <v>0.424678005382205</v>
+        <v>0.2568453776826622</v>
       </c>
       <c r="N7">
-        <v>2.175854585840554</v>
+        <v>2.947883480464284</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.983486540266142</v>
+        <v>1.604454694804076</v>
       </c>
       <c r="C8">
-        <v>0.3920130210145203</v>
+        <v>0.1025655148392985</v>
       </c>
       <c r="D8">
-        <v>0.00810280385586637</v>
+        <v>0.002083917794874601</v>
       </c>
       <c r="E8">
-        <v>0.01767346625493094</v>
+        <v>0.02051484379522961</v>
       </c>
       <c r="F8">
-        <v>2.908101424899968</v>
+        <v>2.711862380484121</v>
       </c>
       <c r="G8">
-        <v>0.0008580124165740195</v>
+        <v>0.0008807280833091391</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05959250540024552</v>
+        <v>0.076564488459125</v>
       </c>
       <c r="K8">
-        <v>0.7106602309162895</v>
+        <v>1.422778543268294</v>
       </c>
       <c r="L8">
-        <v>0.1529739477643943</v>
+        <v>0.1246080192028884</v>
       </c>
       <c r="M8">
-        <v>0.4904997190884117</v>
+        <v>0.2909875491233684</v>
       </c>
       <c r="N8">
-        <v>2.134042249763539</v>
+        <v>2.926916132573609</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.86922881844157</v>
+        <v>2.025933221542516</v>
       </c>
       <c r="C9">
-        <v>0.5376283951614482</v>
+        <v>0.1404296064025061</v>
       </c>
       <c r="D9">
-        <v>0.01090166349015931</v>
+        <v>0.002001905839767559</v>
       </c>
       <c r="E9">
-        <v>0.0184940042884465</v>
+        <v>0.02083649990093406</v>
       </c>
       <c r="F9">
-        <v>3.311338801817413</v>
+        <v>2.960126770559398</v>
       </c>
       <c r="G9">
-        <v>0.0008370115847743639</v>
+        <v>0.00086437219924929</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0574407076885004</v>
+        <v>0.07498536549325863</v>
       </c>
       <c r="K9">
-        <v>0.9368082312907973</v>
+        <v>1.835108973345768</v>
       </c>
       <c r="L9">
-        <v>0.1828357348152139</v>
+        <v>0.1463587695881685</v>
       </c>
       <c r="M9">
-        <v>0.6265881873519064</v>
+        <v>0.3613652857639025</v>
       </c>
       <c r="N9">
-        <v>2.070516469295669</v>
+        <v>2.903885187309641</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.555701011573433</v>
+        <v>2.350523217564444</v>
       </c>
       <c r="C10">
-        <v>0.6496177639485268</v>
+        <v>0.1692279765086795</v>
       </c>
       <c r="D10">
-        <v>0.0132828708569015</v>
+        <v>0.001941440405020423</v>
       </c>
       <c r="E10">
-        <v>0.01914326709998759</v>
+        <v>0.02114431482717105</v>
       </c>
       <c r="F10">
-        <v>3.640650175658465</v>
+        <v>3.162785440208182</v>
       </c>
       <c r="G10">
-        <v>0.0008221544438176497</v>
+        <v>0.0008529031201824159</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05594414421346805</v>
+        <v>0.07402648431730974</v>
       </c>
       <c r="K10">
-        <v>1.111729229525011</v>
+        <v>2.151809179739331</v>
       </c>
       <c r="L10">
-        <v>0.2062618426389946</v>
+        <v>0.1633238812494113</v>
       </c>
       <c r="M10">
-        <v>0.7322631437620899</v>
+        <v>0.4156983573445672</v>
       </c>
       <c r="N10">
-        <v>2.036997779242611</v>
+        <v>2.89942803034792</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.878112637976528</v>
+        <v>2.502226358813573</v>
       </c>
       <c r="C11">
-        <v>0.70205699489361</v>
+        <v>0.1826197342828806</v>
       </c>
       <c r="D11">
-        <v>0.01446334580703024</v>
+        <v>0.001915158487499014</v>
       </c>
       <c r="E11">
-        <v>0.0194531391134336</v>
+        <v>0.02130113221327701</v>
       </c>
       <c r="F11">
-        <v>3.79940971108573</v>
+        <v>3.260186237987398</v>
       </c>
       <c r="G11">
-        <v>0.0008154905401971935</v>
+        <v>0.0008477889146516491</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05528105010527717</v>
+        <v>0.07363629100334457</v>
       </c>
       <c r="K11">
-        <v>1.193816944355575</v>
+        <v>2.299659782282731</v>
       </c>
       <c r="L11">
-        <v>0.2173205987344744</v>
+        <v>0.1712966420915194</v>
       </c>
       <c r="M11">
-        <v>0.7819346808920642</v>
+        <v>0.4411189779481788</v>
       </c>
       <c r="N11">
-        <v>2.025092817842392</v>
+        <v>2.900463687342778</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.001883466966319</v>
+        <v>2.560327339691582</v>
       </c>
       <c r="C12">
-        <v>0.722168160647584</v>
+        <v>0.1877399488660387</v>
       </c>
       <c r="D12">
-        <v>0.01492696872704613</v>
+        <v>0.001905517606925144</v>
       </c>
       <c r="E12">
-        <v>0.01957300599743705</v>
+        <v>0.02136304680411438</v>
       </c>
       <c r="F12">
-        <v>3.860984614690835</v>
+        <v>3.297893160572585</v>
       </c>
       <c r="G12">
-        <v>0.0008129779492937747</v>
+        <v>0.0008458657213020653</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05503244863526735</v>
+        <v>0.07349536772955467</v>
       </c>
       <c r="K12">
-        <v>1.225321036842416</v>
+        <v>2.356263258936337</v>
       </c>
       <c r="L12">
-        <v>0.2215735653939106</v>
+        <v>0.1743561837227716</v>
       </c>
       <c r="M12">
-        <v>0.8010084164958613</v>
+        <v>0.4508585621847629</v>
       </c>
       <c r="N12">
-        <v>2.021112515089783</v>
+        <v>2.901329671160056</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.975148597526925</v>
+        <v>2.547783922373981</v>
       </c>
       <c r="C13">
-        <v>0.7178249141182675</v>
+        <v>0.1866349155177573</v>
       </c>
       <c r="D13">
-        <v>0.01482633495737673</v>
+        <v>0.001907577644141512</v>
       </c>
       <c r="E13">
-        <v>0.01954707052069038</v>
+        <v>0.02134959781615198</v>
       </c>
       <c r="F13">
-        <v>3.847655682624691</v>
+        <v>3.2897344223625</v>
       </c>
       <c r="G13">
-        <v>0.000813518643741469</v>
+        <v>0.0008462793407239267</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05508587911080687</v>
+        <v>0.0735254103957601</v>
       </c>
       <c r="K13">
-        <v>1.218516424769902</v>
+        <v>2.344044086041805</v>
       </c>
       <c r="L13">
-        <v>0.2206545823645598</v>
+        <v>0.1736953953667282</v>
       </c>
       <c r="M13">
-        <v>0.7968882048465318</v>
+        <v>0.448755722327725</v>
       </c>
       <c r="N13">
-        <v>2.021945451507378</v>
+        <v>2.901121526665861</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.888260276549147</v>
+        <v>2.50699280753679</v>
       </c>
       <c r="C14">
-        <v>0.7037062313942499</v>
+        <v>0.183039950730759</v>
       </c>
       <c r="D14">
-        <v>0.01450113922017948</v>
+        <v>0.001914358212183664</v>
       </c>
       <c r="E14">
-        <v>0.01946294728083764</v>
+        <v>0.02130617452000827</v>
       </c>
       <c r="F14">
-        <v>3.804445291154138</v>
+        <v>3.263271457304654</v>
       </c>
       <c r="G14">
-        <v>0.00081528362653852</v>
+        <v>0.0008476304312310328</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05526054773629285</v>
+        <v>0.07362455885698971</v>
       </c>
       <c r="K14">
-        <v>1.196400046607963</v>
+        <v>2.304303808963994</v>
       </c>
       <c r="L14">
-        <v>0.2176691391687768</v>
+        <v>0.1715475195218517</v>
       </c>
       <c r="M14">
-        <v>0.7834983823294692</v>
+        <v>0.4419179143755159</v>
       </c>
       <c r="N14">
-        <v>2.024754485125058</v>
+        <v>2.900525233730548</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.835264642848017</v>
+        <v>2.482094554343007</v>
       </c>
       <c r="C15">
-        <v>0.6950923850212689</v>
+        <v>0.1808445437321495</v>
       </c>
       <c r="D15">
-        <v>0.01430419388836413</v>
+        <v>0.001918556547922279</v>
       </c>
       <c r="E15">
-        <v>0.01941176233726116</v>
+        <v>0.02127990982067907</v>
       </c>
       <c r="F15">
-        <v>3.778172672646264</v>
+        <v>3.24717167639642</v>
       </c>
       <c r="G15">
-        <v>0.000816366060209892</v>
+        <v>0.0008484597209487413</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05536786114023906</v>
+        <v>0.07368618706554741</v>
       </c>
       <c r="K15">
-        <v>1.182909558881491</v>
+        <v>2.280044170993762</v>
       </c>
       <c r="L15">
-        <v>0.2158492035245558</v>
+        <v>0.1702372654243973</v>
       </c>
       <c r="M15">
-        <v>0.7753322245458349</v>
+        <v>0.4377446991997829</v>
       </c>
       <c r="N15">
-        <v>2.026545344236681</v>
+        <v>2.900222736644025</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.534853020926789</v>
+        <v>2.340696510310863</v>
       </c>
       <c r="C16">
-        <v>0.6462240042378937</v>
+        <v>0.1683592500639151</v>
       </c>
       <c r="D16">
-        <v>0.01320789621527041</v>
+        <v>0.001943193612897076</v>
       </c>
       <c r="E16">
-        <v>0.01912334427414963</v>
+        <v>0.02113441401458971</v>
       </c>
       <c r="F16">
-        <v>3.630468978109803</v>
+        <v>3.156531086543367</v>
       </c>
       <c r="G16">
-        <v>0.0008225916248163159</v>
+        <v>0.000853239305388831</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05598783117849226</v>
+        <v>0.07405292835383648</v>
       </c>
       <c r="K16">
-        <v>1.1064199763034</v>
+        <v>2.142228879943815</v>
       </c>
       <c r="L16">
-        <v>0.205547833277663</v>
+        <v>0.1628082893001306</v>
       </c>
       <c r="M16">
-        <v>0.7290520055922514</v>
+        <v>0.4140522372654232</v>
       </c>
       <c r="N16">
-        <v>2.037846957850093</v>
+        <v>2.899424760078787</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.353305824902463</v>
+        <v>2.255039002674152</v>
       </c>
       <c r="C17">
-        <v>0.6166536259405291</v>
+        <v>0.1607793913029383</v>
       </c>
       <c r="D17">
-        <v>0.01256200789724815</v>
+        <v>0.001958709529774616</v>
       </c>
       <c r="E17">
-        <v>0.01895041857899171</v>
+        <v>0.02104953679922517</v>
       </c>
       <c r="F17">
-        <v>3.542264367487206</v>
+        <v>3.102311016412827</v>
       </c>
       <c r="G17">
-        <v>0.0008264332151177408</v>
+        <v>0.000856196893842582</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05637266358099069</v>
+        <v>0.07428984466237587</v>
       </c>
       <c r="K17">
-        <v>1.060179064239364</v>
+        <v>2.058701271058823</v>
       </c>
       <c r="L17">
-        <v>0.1993362754021604</v>
+        <v>0.1583187695842199</v>
       </c>
       <c r="M17">
-        <v>0.7010932889172139</v>
+        <v>0.3997062858451272</v>
       </c>
       <c r="N17">
-        <v>2.045668016598583</v>
+        <v>2.899742467244764</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.249823435604128</v>
+        <v>2.206147115162651</v>
       </c>
       <c r="C18">
-        <v>0.5997836292623049</v>
+        <v>0.1564465989610966</v>
       </c>
       <c r="D18">
-        <v>0.01219948633950096</v>
+        <v>0.001967739527549028</v>
       </c>
       <c r="E18">
-        <v>0.01885229310631331</v>
+        <v>0.02100229040973378</v>
       </c>
       <c r="F18">
-        <v>3.492362968237842</v>
+        <v>3.071610645331504</v>
       </c>
       <c r="G18">
-        <v>0.0008286518898144024</v>
+        <v>0.0008579078180548681</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05659567806761467</v>
+        <v>0.07443042870001015</v>
       </c>
       <c r="K18">
-        <v>1.033815421626073</v>
+        <v>2.011009694644457</v>
       </c>
       <c r="L18">
-        <v>0.195800904280695</v>
+        <v>0.155760298553119</v>
       </c>
       <c r="M18">
-        <v>0.685160443578674</v>
+        <v>0.3915203712048339</v>
       </c>
       <c r="N18">
-        <v>2.050477974443268</v>
+        <v>2.900211348282966</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.214940939223823</v>
+        <v>2.18965565000434</v>
       </c>
       <c r="C19">
-        <v>0.5940943597623516</v>
+        <v>0.1549840106423659</v>
       </c>
       <c r="D19">
-        <v>0.01207821074569893</v>
+        <v>0.001970811365724856</v>
       </c>
       <c r="E19">
-        <v>0.01881928684172562</v>
+        <v>0.02098656035632906</v>
       </c>
       <c r="F19">
-        <v>3.475605233637765</v>
+        <v>3.06129728357223</v>
       </c>
       <c r="G19">
-        <v>0.0008294047346774512</v>
+        <v>0.0008584888305048878</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05667147498865432</v>
+        <v>0.07447876300231648</v>
       </c>
       <c r="K19">
-        <v>1.024927508129025</v>
+        <v>1.994920406100789</v>
       </c>
       <c r="L19">
-        <v>0.1946100916691265</v>
+        <v>0.1548980209411752</v>
       </c>
       <c r="M19">
-        <v>0.6797903466228945</v>
+        <v>0.3887596609509885</v>
       </c>
       <c r="N19">
-        <v>2.052158702004647</v>
+        <v>2.90041828744458</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.372533144230488</v>
+        <v>2.264117967945595</v>
       </c>
       <c r="C20">
-        <v>0.6197868859451319</v>
+        <v>0.1615834422309774</v>
       </c>
       <c r="D20">
-        <v>0.01262981703291999</v>
+        <v>0.00195704600035107</v>
       </c>
       <c r="E20">
-        <v>0.01896868550196595</v>
+        <v>0.02105840854485397</v>
       </c>
       <c r="F20">
-        <v>3.55156668124323</v>
+        <v>3.108032065849187</v>
       </c>
       <c r="G20">
-        <v>0.0008260233488878179</v>
+        <v>0.0008558810491043214</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05633152510410744</v>
+        <v>0.07426417630615312</v>
       </c>
       <c r="K20">
-        <v>1.065076989040875</v>
+        <v>2.06755607196115</v>
       </c>
       <c r="L20">
-        <v>0.1999935894927134</v>
+        <v>0.1587941994079003</v>
       </c>
       <c r="M20">
-        <v>0.7040539623663662</v>
+        <v>0.4012265743326537</v>
       </c>
       <c r="N20">
-        <v>2.044802890824542</v>
+        <v>2.899678801191627</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.91373395078989</v>
+        <v>2.518955775856114</v>
       </c>
       <c r="C21">
-        <v>0.7078460159406177</v>
+        <v>0.184094487082703</v>
       </c>
       <c r="D21">
-        <v>0.01459618370358839</v>
+        <v>0.001912356928182035</v>
       </c>
       <c r="E21">
-        <v>0.01948758396285566</v>
+        <v>0.02131885930389998</v>
       </c>
       <c r="F21">
-        <v>3.817096262551132</v>
+        <v>3.271021298918441</v>
       </c>
       <c r="G21">
-        <v>0.0008147649362490053</v>
+        <v>0.0008472332300110683</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05520917593167152</v>
+        <v>0.07359524921329452</v>
       </c>
       <c r="K21">
-        <v>1.202884289255664</v>
+        <v>2.315959175190045</v>
       </c>
       <c r="L21">
-        <v>0.2185442013495589</v>
+        <v>0.1721772739826335</v>
       </c>
       <c r="M21">
-        <v>0.7874238334133494</v>
+        <v>0.4439231659967575</v>
       </c>
       <c r="N21">
-        <v>2.02391467193506</v>
+        <v>2.900687238193427</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.277360441896008</v>
+        <v>2.689359684110627</v>
       </c>
       <c r="C22">
-        <v>0.7668974712731256</v>
+        <v>0.1990965195811327</v>
       </c>
       <c r="D22">
-        <v>0.01597959937413762</v>
+        <v>0.001885048629779007</v>
       </c>
       <c r="E22">
-        <v>0.01984168655541918</v>
+        <v>0.02150389657638918</v>
       </c>
       <c r="F22">
-        <v>3.999216831199107</v>
+        <v>3.382383160225061</v>
       </c>
       <c r="G22">
-        <v>0.0008074688406680715</v>
+        <v>0.0008416590131085595</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05449019064822114</v>
+        <v>0.07319802085540061</v>
       </c>
       <c r="K22">
-        <v>1.295425298166336</v>
+        <v>2.481932111443967</v>
       </c>
       <c r="L22">
-        <v>0.2310526008585896</v>
+        <v>0.1811615396448687</v>
       </c>
       <c r="M22">
-        <v>0.8434699438464435</v>
+        <v>0.4724950090870692</v>
       </c>
       <c r="N22">
-        <v>2.013366210359507</v>
+        <v>2.904125974675878</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.082296940687911</v>
+        <v>2.598033522622472</v>
       </c>
       <c r="C23">
-        <v>0.7352292447367859</v>
+        <v>0.1910605710476005</v>
       </c>
       <c r="D23">
-        <v>0.01523128178101985</v>
+        <v>0.001899397931108382</v>
       </c>
       <c r="E23">
-        <v>0.01965116250653232</v>
+        <v>0.0214037409304213</v>
       </c>
       <c r="F23">
-        <v>3.901168993500335</v>
+        <v>3.32247802795564</v>
       </c>
       <c r="G23">
-        <v>0.0008113582295927147</v>
+        <v>0.0008446274657012252</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05487261334516536</v>
+        <v>0.07340629520287045</v>
       </c>
       <c r="K23">
-        <v>1.245786875635972</v>
+        <v>2.392991725931836</v>
       </c>
       <c r="L23">
-        <v>0.2243387464619957</v>
+        <v>0.1763433959665974</v>
       </c>
       <c r="M23">
-        <v>0.8134019653416829</v>
+        <v>0.457180328825487</v>
       </c>
       <c r="N23">
-        <v>2.018694949166019</v>
+        <v>2.902024404429369</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.363837712837949</v>
+        <v>2.260012271276594</v>
       </c>
       <c r="C24">
-        <v>0.6183699357597163</v>
+        <v>0.1612198535645604</v>
       </c>
       <c r="D24">
-        <v>0.01259913327966444</v>
+        <v>0.001957797750216983</v>
       </c>
       <c r="E24">
-        <v>0.01896042303444867</v>
+        <v>0.02105439280743759</v>
       </c>
       <c r="F24">
-        <v>3.547358599032464</v>
+        <v>3.10544411638972</v>
       </c>
       <c r="G24">
-        <v>0.0008262086176909062</v>
+        <v>0.0008560238094791273</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05635011829535408</v>
+        <v>0.07427576735070396</v>
       </c>
       <c r="K24">
-        <v>1.062861953522301</v>
+        <v>2.063551795311952</v>
       </c>
       <c r="L24">
-        <v>0.1996963070320064</v>
+        <v>0.1585791874254241</v>
       </c>
       <c r="M24">
-        <v>0.7027150052671303</v>
+        <v>0.4005390604251815</v>
       </c>
       <c r="N24">
-        <v>2.045193041109712</v>
+        <v>2.899706695558677</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.62406883501086</v>
+        <v>1.909540844262665</v>
       </c>
       <c r="C25">
-        <v>0.4974812670838844</v>
+        <v>0.1300387324176313</v>
       </c>
       <c r="D25">
-        <v>0.01009554521478506</v>
+        <v>0.002024494642450136</v>
       </c>
       <c r="E25">
-        <v>0.01826521471644238</v>
+        <v>0.02073732061320932</v>
       </c>
       <c r="F25">
-        <v>3.196994247979575</v>
+        <v>2.889660667698379</v>
       </c>
       <c r="G25">
-        <v>0.0008425833106451486</v>
+        <v>0.000868695819744896</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05800782417785033</v>
+        <v>0.07537793627650657</v>
       </c>
       <c r="K25">
-        <v>0.8742764303747208</v>
+        <v>1.721393491688019</v>
       </c>
       <c r="L25">
-        <v>0.1745206144476938</v>
+        <v>0.1403145832645478</v>
       </c>
       <c r="M25">
-        <v>0.5888849379283911</v>
+        <v>0.3419067465798307</v>
       </c>
       <c r="N25">
-        <v>2.085542012334685</v>
+        <v>2.908038888284707</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.661226920121095</v>
+        <v>1.020999093616467</v>
       </c>
       <c r="C2">
-        <v>0.1077094733349639</v>
+        <v>0.09756940449699414</v>
       </c>
       <c r="D2">
-        <v>0.002072976888269906</v>
+        <v>0.0402156844272028</v>
       </c>
       <c r="E2">
-        <v>0.02055142980899927</v>
+        <v>0.03351628965762465</v>
       </c>
       <c r="F2">
-        <v>2.744088595678122</v>
+        <v>1.134064775939912</v>
       </c>
       <c r="G2">
-        <v>0.0008783996954012467</v>
+        <v>0.8882171833097914</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01853741864974268</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0763237858368484</v>
+        <v>0.6521073326937596</v>
       </c>
       <c r="K2">
-        <v>1.478418546212595</v>
+        <v>0.679155268762301</v>
       </c>
       <c r="L2">
-        <v>0.1275129986338897</v>
+        <v>0.05257220256512696</v>
       </c>
       <c r="M2">
-        <v>0.3004517422475992</v>
+        <v>0.9557945536298007</v>
       </c>
       <c r="N2">
-        <v>2.922410092992521</v>
+        <v>0.1555139733591346</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2182530807622847</v>
+      </c>
+      <c r="P2">
+        <v>1.314299546241024</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.49794738118544</v>
+        <v>0.8939230390566024</v>
       </c>
       <c r="C3">
-        <v>0.09286571729822413</v>
+        <v>0.08590143389110949</v>
       </c>
       <c r="D3">
-        <v>0.002104053126307015</v>
+        <v>0.0357086584064561</v>
       </c>
       <c r="E3">
-        <v>0.02045346802535164</v>
+        <v>0.03145620743434385</v>
       </c>
       <c r="F3">
-        <v>2.652655842903812</v>
+        <v>1.099973995326735</v>
       </c>
       <c r="G3">
-        <v>0.0008852303006960064</v>
+        <v>0.8613990098566546</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0227922357692919</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07704553059032015</v>
+        <v>0.644945454561821</v>
       </c>
       <c r="K3">
-        <v>1.318283694407825</v>
+        <v>0.6720050609862795</v>
       </c>
       <c r="L3">
-        <v>0.1191854239635219</v>
+        <v>0.05032072556365641</v>
       </c>
       <c r="M3">
-        <v>0.2732494278155997</v>
+        <v>0.8324557918197684</v>
       </c>
       <c r="N3">
-        <v>2.936813946858237</v>
+        <v>0.1399619095676456</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1925497552909441</v>
+      </c>
+      <c r="P3">
+        <v>1.354187325754392</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.399844251528776</v>
+        <v>0.8161637638334867</v>
       </c>
       <c r="C4">
-        <v>0.08386352412418319</v>
+        <v>0.07874926844904451</v>
       </c>
       <c r="D4">
-        <v>0.002121915277279562</v>
+        <v>0.03294456932763978</v>
       </c>
       <c r="E4">
-        <v>0.02040665642775696</v>
+        <v>0.0301856535628815</v>
       </c>
       <c r="F4">
-        <v>2.599757495352463</v>
+        <v>1.080085864088502</v>
       </c>
       <c r="G4">
-        <v>0.0008895560861552573</v>
+        <v>0.845906287150612</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.02572434509329258</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07752759760923489</v>
+        <v>0.6411331423891511</v>
       </c>
       <c r="K4">
-        <v>1.22188227424391</v>
+        <v>0.6682502799330692</v>
       </c>
       <c r="L4">
-        <v>0.1142275975875222</v>
+        <v>0.04891534138984355</v>
       </c>
       <c r="M4">
-        <v>0.2569341832063046</v>
+        <v>0.7569622993714802</v>
       </c>
       <c r="N4">
-        <v>2.947818036464781</v>
+        <v>0.130411759934681</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1768073943204449</v>
+      </c>
+      <c r="P4">
+        <v>1.37960675521121</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.360364113979756</v>
+        <v>0.7845336788871862</v>
       </c>
       <c r="C5">
-        <v>0.08021904108105105</v>
+        <v>0.07583614269082517</v>
       </c>
       <c r="D5">
-        <v>0.002128847682367763</v>
+        <v>0.03181869856445019</v>
       </c>
       <c r="E5">
-        <v>0.02039086939921297</v>
+        <v>0.02966611582233103</v>
       </c>
       <c r="F5">
-        <v>2.578972220812545</v>
+        <v>1.072233577659432</v>
       </c>
       <c r="G5">
-        <v>0.0008913528880270024</v>
+        <v>0.8398274326349338</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02699678420927076</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07773370268428259</v>
+        <v>0.6397221430299282</v>
       </c>
       <c r="K5">
-        <v>1.183038589864623</v>
+        <v>0.6668746947345063</v>
       </c>
       <c r="L5">
-        <v>0.1122440728119614</v>
+        <v>0.04833634477652549</v>
       </c>
       <c r="M5">
-        <v>0.2503757151718631</v>
+        <v>0.7262476071794026</v>
       </c>
       <c r="N5">
-        <v>2.952826070499256</v>
+        <v>0.1265185728511966</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1704005022871371</v>
+      </c>
+      <c r="P5">
+        <v>1.390194388291313</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.353837314973248</v>
+        <v>0.7792847311859248</v>
       </c>
       <c r="C6">
-        <v>0.07961520967943159</v>
+        <v>0.07535246265403828</v>
       </c>
       <c r="D6">
-        <v>0.002129976875409945</v>
+        <v>0.03163177152098484</v>
       </c>
       <c r="E6">
-        <v>0.02038844483138291</v>
+        <v>0.02957972960101074</v>
       </c>
       <c r="F6">
-        <v>2.575566192177376</v>
+        <v>1.070944660260722</v>
       </c>
       <c r="G6">
-        <v>0.0008916533243523644</v>
+        <v>0.8388319175776218</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.02721267763440727</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07776850612401631</v>
+        <v>0.6394963272110488</v>
       </c>
       <c r="K6">
-        <v>1.176614047838626</v>
+        <v>0.6666554624710734</v>
       </c>
       <c r="L6">
-        <v>0.1119168719529569</v>
+        <v>0.04823980816381557</v>
       </c>
       <c r="M6">
-        <v>0.2492919280438635</v>
+        <v>0.7211501620292609</v>
       </c>
       <c r="N6">
-        <v>2.953688743594753</v>
+        <v>0.1258719937446244</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1693370927019835</v>
+      </c>
+      <c r="P6">
+        <v>1.391966163734455</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.399309848598307</v>
+        <v>0.8157369689310769</v>
       </c>
       <c r="C7">
-        <v>0.08381428153829518</v>
+        <v>0.07870997721788342</v>
       </c>
       <c r="D7">
-        <v>0.002122010219668624</v>
+        <v>0.03292938372354115</v>
       </c>
       <c r="E7">
-        <v>0.02040643028278133</v>
+        <v>0.03017865454644841</v>
       </c>
       <c r="F7">
-        <v>2.599474111151281</v>
+        <v>1.07997895701218</v>
       </c>
       <c r="G7">
-        <v>0.0008895801796003815</v>
+        <v>0.8458233691630852</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.02574119514904039</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07753033826593914</v>
+        <v>0.6411135418863267</v>
       </c>
       <c r="K7">
-        <v>1.221356684770541</v>
+        <v>0.6682311094743767</v>
       </c>
       <c r="L7">
-        <v>0.11420070080068</v>
+        <v>0.0489075589789616</v>
       </c>
       <c r="M7">
-        <v>0.2568453776826622</v>
+        <v>0.7565478827392838</v>
       </c>
       <c r="N7">
-        <v>2.947883480464284</v>
+        <v>0.1303592622880032</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1767209575306694</v>
+      </c>
+      <c r="P7">
+        <v>1.379748622131352</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.604454694804076</v>
+        <v>0.9771222179576284</v>
       </c>
       <c r="C8">
-        <v>0.1025655148392985</v>
+        <v>0.09354281365587269</v>
       </c>
       <c r="D8">
-        <v>0.002083917794874601</v>
+        <v>0.03866080266646321</v>
       </c>
       <c r="E8">
-        <v>0.02051484379522961</v>
+        <v>0.03280692804210084</v>
       </c>
       <c r="F8">
-        <v>2.711862380484121</v>
+        <v>1.122087373339355</v>
       </c>
       <c r="G8">
-        <v>0.0008807280833091391</v>
+        <v>0.8787618258985646</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01993642759563807</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.076564488459125</v>
+        <v>0.6495136521772764</v>
       </c>
       <c r="K8">
-        <v>1.422778543268294</v>
+        <v>0.6765547333696418</v>
       </c>
       <c r="L8">
-        <v>0.1246080192028884</v>
+        <v>0.05180034338915274</v>
       </c>
       <c r="M8">
-        <v>0.2909875491233684</v>
+        <v>0.9132118967775398</v>
       </c>
       <c r="N8">
-        <v>2.926916132573609</v>
+        <v>0.1501511462540819</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.2093812971189344</v>
+      </c>
+      <c r="P8">
+        <v>1.327857517278751</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.025933221542516</v>
+        <v>1.296172355994486</v>
       </c>
       <c r="C9">
-        <v>0.1404296064025061</v>
+        <v>0.1228020565967824</v>
       </c>
       <c r="D9">
-        <v>0.002001905839767559</v>
+        <v>0.04994071603071859</v>
       </c>
       <c r="E9">
-        <v>0.02083649990093406</v>
+        <v>0.03793307923155176</v>
       </c>
       <c r="F9">
-        <v>2.960126770559398</v>
+        <v>1.213429282122803</v>
       </c>
       <c r="G9">
-        <v>0.00086437219924929</v>
+        <v>0.9515713121408282</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01121999474989097</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07498536549325863</v>
+        <v>0.6708472343540137</v>
       </c>
       <c r="K9">
-        <v>1.835108973345768</v>
+        <v>0.6981703662777576</v>
       </c>
       <c r="L9">
-        <v>0.1463587695881685</v>
+        <v>0.05731521424110309</v>
       </c>
       <c r="M9">
-        <v>0.3613652857639025</v>
+        <v>1.222804826512174</v>
       </c>
       <c r="N9">
-        <v>2.903885187309641</v>
+        <v>0.189009907832812</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2738265108130378</v>
+      </c>
+      <c r="P9">
+        <v>1.233668032105765</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.350523217564444</v>
+        <v>1.525297364839389</v>
       </c>
       <c r="C10">
-        <v>0.1692279765086795</v>
+        <v>0.1451997575265835</v>
       </c>
       <c r="D10">
-        <v>0.001941440405020423</v>
+        <v>0.05736322271854277</v>
       </c>
       <c r="E10">
-        <v>0.02114431482717105</v>
+        <v>0.04052760352828599</v>
       </c>
       <c r="F10">
-        <v>3.162785440208182</v>
+        <v>1.272813774354503</v>
       </c>
       <c r="G10">
-        <v>0.0008529031201824159</v>
+        <v>0.9993566930407525</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.007010522563458021</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07402648431730974</v>
+        <v>0.6840876478346871</v>
       </c>
       <c r="K10">
-        <v>2.151809179739331</v>
+        <v>0.7102954194096185</v>
       </c>
       <c r="L10">
-        <v>0.1633238812494113</v>
+        <v>0.06034908342629208</v>
       </c>
       <c r="M10">
-        <v>0.4156983573445672</v>
+        <v>1.447905887099807</v>
       </c>
       <c r="N10">
-        <v>2.89942803034792</v>
+        <v>0.2107431954005108</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.316954651416161</v>
+      </c>
+      <c r="P10">
+        <v>1.164191127996808</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.502226358813573</v>
+        <v>1.563747223843677</v>
       </c>
       <c r="C11">
-        <v>0.1826197342828806</v>
+        <v>0.1616181562922918</v>
       </c>
       <c r="D11">
-        <v>0.001915158487499014</v>
+        <v>0.05297262435741601</v>
       </c>
       <c r="E11">
-        <v>0.02130113221327701</v>
+        <v>0.03315464865437612</v>
       </c>
       <c r="F11">
-        <v>3.260186237987398</v>
+        <v>1.183423136200744</v>
       </c>
       <c r="G11">
-        <v>0.0008477889146516491</v>
+        <v>0.9247630450630453</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02528347713926848</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07363629100334457</v>
+        <v>0.6419406416244726</v>
       </c>
       <c r="K11">
-        <v>2.299659782282731</v>
+        <v>0.6543239069447964</v>
       </c>
       <c r="L11">
-        <v>0.1712966420915194</v>
+        <v>0.05761485586261772</v>
       </c>
       <c r="M11">
-        <v>0.4411189779481788</v>
+        <v>1.510773339884963</v>
       </c>
       <c r="N11">
-        <v>2.900463687342778</v>
+        <v>0.1647929440825635</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2972917008245233</v>
+      </c>
+      <c r="P11">
+        <v>1.094423348056793</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.560327339691582</v>
+        <v>1.54642966164846</v>
       </c>
       <c r="C12">
-        <v>0.1877399488660387</v>
+        <v>0.1710521319822647</v>
       </c>
       <c r="D12">
-        <v>0.001905517606925144</v>
+        <v>0.04787628098974039</v>
       </c>
       <c r="E12">
-        <v>0.02136304680411438</v>
+        <v>0.02865408811326819</v>
       </c>
       <c r="F12">
-        <v>3.297893160572585</v>
+        <v>1.097050125868478</v>
       </c>
       <c r="G12">
-        <v>0.0008458657213020653</v>
+        <v>0.8530976131891066</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06416876031438079</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07349536772955467</v>
+        <v>0.6040570990537901</v>
       </c>
       <c r="K12">
-        <v>2.356263258936337</v>
+        <v>0.6059854943277188</v>
       </c>
       <c r="L12">
-        <v>0.1743561837227716</v>
+        <v>0.06035946594036012</v>
       </c>
       <c r="M12">
-        <v>0.4508585621847629</v>
+        <v>1.515207951332997</v>
       </c>
       <c r="N12">
-        <v>2.901329671160056</v>
+        <v>0.1271800998438906</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2721607020858485</v>
+      </c>
+      <c r="P12">
+        <v>1.056904729833807</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.547783922373981</v>
+        <v>1.485242720709948</v>
       </c>
       <c r="C13">
-        <v>0.1866349155177573</v>
+        <v>0.1755384875047383</v>
       </c>
       <c r="D13">
-        <v>0.001907577644141512</v>
+        <v>0.04197828681853366</v>
       </c>
       <c r="E13">
-        <v>0.02134959781615198</v>
+        <v>0.0260808697231022</v>
       </c>
       <c r="F13">
-        <v>3.2897344223625</v>
+        <v>1.00789618237274</v>
       </c>
       <c r="G13">
-        <v>0.0008462793407239267</v>
+        <v>0.7793654972641804</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1205817661441273</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0735254103957601</v>
+        <v>0.5671214482113953</v>
       </c>
       <c r="K13">
-        <v>2.344044086041805</v>
+        <v>0.5605650819158257</v>
       </c>
       <c r="L13">
-        <v>0.1736953953667282</v>
+        <v>0.06730401932856367</v>
       </c>
       <c r="M13">
-        <v>0.448755722327725</v>
+        <v>1.474779722042911</v>
       </c>
       <c r="N13">
-        <v>2.901121526665861</v>
+        <v>0.09400135721200087</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2415551720125215</v>
+      </c>
+      <c r="P13">
+        <v>1.040969100800214</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.50699280753679</v>
+        <v>1.422848723072974</v>
       </c>
       <c r="C14">
-        <v>0.183039950730759</v>
+        <v>0.1764363494034029</v>
       </c>
       <c r="D14">
-        <v>0.001914358212183664</v>
+        <v>0.03755524770432572</v>
       </c>
       <c r="E14">
-        <v>0.02130617452000827</v>
+        <v>0.02545345998125259</v>
       </c>
       <c r="F14">
-        <v>3.263271457304654</v>
+        <v>0.9450182113469126</v>
       </c>
       <c r="G14">
-        <v>0.0008476304312310328</v>
+        <v>0.7274737194792209</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1705978084255833</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07362455885698971</v>
+        <v>0.5419818528689291</v>
       </c>
       <c r="K14">
-        <v>2.304303808963994</v>
+        <v>0.5305410262798418</v>
       </c>
       <c r="L14">
-        <v>0.1715475195218517</v>
+        <v>0.07471208216853853</v>
       </c>
       <c r="M14">
-        <v>0.4419179143755159</v>
+        <v>1.426338300893121</v>
       </c>
       <c r="N14">
-        <v>2.900525233730548</v>
+        <v>0.07376748706306913</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.217964593089583</v>
+      </c>
+      <c r="P14">
+        <v>1.040208335987477</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.482094554343007</v>
+        <v>1.398582480523174</v>
       </c>
       <c r="C15">
-        <v>0.1808445437321495</v>
+        <v>0.1755451951974294</v>
       </c>
       <c r="D15">
-        <v>0.001918556547922279</v>
+        <v>0.0362958104041482</v>
       </c>
       <c r="E15">
-        <v>0.02127990982067907</v>
+        <v>0.02541352575791134</v>
       </c>
       <c r="F15">
-        <v>3.24717167639642</v>
+        <v>0.9289981971737049</v>
       </c>
       <c r="G15">
-        <v>0.0008484597209487413</v>
+        <v>0.7142883079148135</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1834281490775425</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07368618706554741</v>
+        <v>0.5360279806888713</v>
       </c>
       <c r="K15">
-        <v>2.280044170993762</v>
+        <v>0.5236947664752343</v>
       </c>
       <c r="L15">
-        <v>0.1702372654243973</v>
+        <v>0.07663441398950255</v>
       </c>
       <c r="M15">
-        <v>0.4377446991997829</v>
+        <v>1.405174773157114</v>
       </c>
       <c r="N15">
-        <v>2.900222736644025</v>
+        <v>0.0690867864939797</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2110357700198975</v>
+      </c>
+      <c r="P15">
+        <v>1.043629286426916</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.340696510310863</v>
+        <v>1.313523121322135</v>
       </c>
       <c r="C16">
-        <v>0.1683592500639151</v>
+        <v>0.1647143078800042</v>
       </c>
       <c r="D16">
-        <v>0.001943193612897076</v>
+        <v>0.0344720250611843</v>
       </c>
       <c r="E16">
-        <v>0.02113441401458971</v>
+        <v>0.02486373706820588</v>
       </c>
       <c r="F16">
-        <v>3.156531086543367</v>
+        <v>0.9220566755620467</v>
       </c>
       <c r="G16">
-        <v>0.000853239305388831</v>
+        <v>0.708886576587247</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1724337049643481</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07405292835383648</v>
+        <v>0.5377366748358128</v>
       </c>
       <c r="K16">
-        <v>2.142228879943815</v>
+        <v>0.5276445435315367</v>
       </c>
       <c r="L16">
-        <v>0.1628082893001306</v>
+        <v>0.07359096738288429</v>
       </c>
       <c r="M16">
-        <v>0.4140522372654232</v>
+        <v>1.316938497126472</v>
       </c>
       <c r="N16">
-        <v>2.899424760078787</v>
+        <v>0.06749330215121674</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1995529600710562</v>
+      </c>
+      <c r="P16">
+        <v>1.074014895916122</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.255039002674152</v>
+        <v>1.281433595497049</v>
       </c>
       <c r="C17">
-        <v>0.1607793913029383</v>
+        <v>0.1559715861261708</v>
       </c>
       <c r="D17">
-        <v>0.001958709529774616</v>
+        <v>0.03537492998302127</v>
       </c>
       <c r="E17">
-        <v>0.02104953679922517</v>
+        <v>0.02456912031940439</v>
       </c>
       <c r="F17">
-        <v>3.102311016412827</v>
+        <v>0.9499713061581332</v>
       </c>
       <c r="G17">
-        <v>0.000856196893842582</v>
+        <v>0.7322193335439664</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1356685523777088</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07428984466237587</v>
+        <v>0.5524128713729937</v>
       </c>
       <c r="K17">
-        <v>2.058701271058823</v>
+        <v>0.5465511695768193</v>
       </c>
       <c r="L17">
-        <v>0.1583187695842199</v>
+        <v>0.06689448937331477</v>
       </c>
       <c r="M17">
-        <v>0.3997062858451272</v>
+        <v>1.275113595887234</v>
       </c>
       <c r="N17">
-        <v>2.899742467244764</v>
+        <v>0.07631972171720491</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2030743256951517</v>
+      </c>
+      <c r="P17">
+        <v>1.097781652797464</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.206147115162651</v>
+        <v>1.290717997369029</v>
       </c>
       <c r="C18">
-        <v>0.1564465989610966</v>
+        <v>0.1481189073523979</v>
       </c>
       <c r="D18">
-        <v>0.001967739527549028</v>
+        <v>0.03884199129952748</v>
       </c>
       <c r="E18">
-        <v>0.02100229040973378</v>
+        <v>0.02557181982261403</v>
       </c>
       <c r="F18">
-        <v>3.071610645331504</v>
+        <v>1.012171500605049</v>
       </c>
       <c r="G18">
-        <v>0.0008579078180548681</v>
+        <v>0.7838530320995147</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08308124510976711</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07443042870001015</v>
+        <v>0.5802776011961157</v>
       </c>
       <c r="K18">
-        <v>2.011009694644457</v>
+        <v>0.5813558429950518</v>
       </c>
       <c r="L18">
-        <v>0.155760298553119</v>
+        <v>0.05899744873971002</v>
       </c>
       <c r="M18">
-        <v>0.3915203712048339</v>
+        <v>1.267919570644807</v>
       </c>
       <c r="N18">
-        <v>2.900211348282966</v>
+        <v>0.09809544401237957</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.2203332660277226</v>
+      </c>
+      <c r="P18">
+        <v>1.121774787460555</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.18965565000434</v>
+        <v>1.332445513229288</v>
       </c>
       <c r="C19">
-        <v>0.1549840106423659</v>
+        <v>0.1416877985630407</v>
       </c>
       <c r="D19">
-        <v>0.001970811365724856</v>
+        <v>0.04433415308017885</v>
       </c>
       <c r="E19">
-        <v>0.02098656035632906</v>
+        <v>0.02920650575929074</v>
       </c>
       <c r="F19">
-        <v>3.06129728357223</v>
+        <v>1.099867477813248</v>
       </c>
       <c r="G19">
-        <v>0.0008584888305048878</v>
+        <v>0.8565567940492258</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03714142652879104</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07447876300231648</v>
+        <v>0.6176010889224273</v>
       </c>
       <c r="K19">
-        <v>1.994920406100789</v>
+        <v>0.6280993320098247</v>
       </c>
       <c r="L19">
-        <v>0.1548980209411752</v>
+        <v>0.05466256974505068</v>
       </c>
       <c r="M19">
-        <v>0.3887596609509885</v>
+        <v>1.288832053216709</v>
       </c>
       <c r="N19">
-        <v>2.90041828744458</v>
+        <v>0.1333307961427153</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2482481586527321</v>
+      </c>
+      <c r="P19">
+        <v>1.148963933088783</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.264117967945595</v>
+        <v>1.464659662983536</v>
       </c>
       <c r="C20">
-        <v>0.1615834422309774</v>
+        <v>0.1393251811354759</v>
       </c>
       <c r="D20">
-        <v>0.00195704600035107</v>
+        <v>0.0553736040007351</v>
       </c>
       <c r="E20">
-        <v>0.02105840854485397</v>
+        <v>0.03979405350377618</v>
       </c>
       <c r="F20">
-        <v>3.108032065849187</v>
+        <v>1.25620983595708</v>
       </c>
       <c r="G20">
-        <v>0.0008558810491043214</v>
+        <v>0.9859149189259568</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.007985631644467528</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07426417630615312</v>
+        <v>0.6801351173671577</v>
       </c>
       <c r="K20">
-        <v>2.06755607196115</v>
+        <v>0.7065431721516688</v>
       </c>
       <c r="L20">
-        <v>0.1587941994079003</v>
+        <v>0.05950772364227852</v>
       </c>
       <c r="M20">
-        <v>0.4012265743326537</v>
+        <v>1.38844621131426</v>
       </c>
       <c r="N20">
-        <v>2.899678801191627</v>
+        <v>0.204742124236688</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.3054176172730791</v>
+      </c>
+      <c r="P20">
+        <v>1.181828617503918</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.518955775856114</v>
+        <v>1.653046898998554</v>
       </c>
       <c r="C21">
-        <v>0.184094487082703</v>
+        <v>0.1555644417445023</v>
       </c>
       <c r="D21">
-        <v>0.001912356928182035</v>
+        <v>0.06250015762014272</v>
       </c>
       <c r="E21">
-        <v>0.02131885930389998</v>
+        <v>0.04362098291201022</v>
       </c>
       <c r="F21">
-        <v>3.271021298918441</v>
+        <v>1.325223893992543</v>
       </c>
       <c r="G21">
-        <v>0.0008472332300110683</v>
+        <v>1.042304881950372</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.004815135044139995</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07359524921329452</v>
+        <v>0.7002766062223174</v>
       </c>
       <c r="K21">
-        <v>2.315959175190045</v>
+        <v>0.7284673991754218</v>
       </c>
       <c r="L21">
-        <v>0.1721772739826335</v>
+        <v>0.06331507486825849</v>
       </c>
       <c r="M21">
-        <v>0.4439231659967575</v>
+        <v>1.569102705862406</v>
       </c>
       <c r="N21">
-        <v>2.900687238193427</v>
+        <v>0.2321869432414161</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3457534884855704</v>
+      </c>
+      <c r="P21">
+        <v>1.138228566592332</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.689359684110627</v>
+        <v>1.772983870956551</v>
       </c>
       <c r="C22">
-        <v>0.1990965195811327</v>
+        <v>0.1666021251020453</v>
       </c>
       <c r="D22">
-        <v>0.001885048629779007</v>
+        <v>0.06671056808416864</v>
       </c>
       <c r="E22">
-        <v>0.02150389657638918</v>
+        <v>0.04553030173436845</v>
       </c>
       <c r="F22">
-        <v>3.382383160225061</v>
+        <v>1.364652385936537</v>
       </c>
       <c r="G22">
-        <v>0.0008416590131085595</v>
+        <v>1.074618300551876</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.003319011103445124</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07319802085540061</v>
+        <v>0.7112324577963989</v>
       </c>
       <c r="K22">
-        <v>2.481932111443967</v>
+        <v>0.7398276381095386</v>
       </c>
       <c r="L22">
-        <v>0.1811615396448687</v>
+        <v>0.0653119361301151</v>
       </c>
       <c r="M22">
-        <v>0.4724950090870692</v>
+        <v>1.685512561243712</v>
       </c>
       <c r="N22">
-        <v>2.904125974675878</v>
+        <v>0.2466471723203085</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.36989339809287</v>
+      </c>
+      <c r="P22">
+        <v>1.108057334441988</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.598033522622472</v>
+        <v>1.708907294990269</v>
       </c>
       <c r="C23">
-        <v>0.1910605710476005</v>
+        <v>0.1607030812137538</v>
       </c>
       <c r="D23">
-        <v>0.001899397931108382</v>
+        <v>0.06446172973067377</v>
       </c>
       <c r="E23">
-        <v>0.0214037409304213</v>
+        <v>0.04451018637420923</v>
       </c>
       <c r="F23">
-        <v>3.32247802795564</v>
+        <v>1.34348111747795</v>
       </c>
       <c r="G23">
-        <v>0.0008446274657012252</v>
+        <v>1.057249623804225</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.00408037284471241</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07340629520287045</v>
+        <v>0.7053183985480587</v>
       </c>
       <c r="K23">
-        <v>2.392991725931836</v>
+        <v>0.7336908984182458</v>
       </c>
       <c r="L23">
-        <v>0.1763433959665974</v>
+        <v>0.06424586611259286</v>
       </c>
       <c r="M23">
-        <v>0.457180328825487</v>
+        <v>1.623318002799948</v>
       </c>
       <c r="N23">
-        <v>2.902024404429369</v>
+        <v>0.2389245274614922</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3569985687596642</v>
+      </c>
+      <c r="P23">
+        <v>1.124067427787089</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.260012271276594</v>
+        <v>1.467548118347025</v>
       </c>
       <c r="C24">
-        <v>0.1612198535645604</v>
+        <v>0.138523152756548</v>
       </c>
       <c r="D24">
-        <v>0.001957797750216983</v>
+        <v>0.05597831212771354</v>
       </c>
       <c r="E24">
-        <v>0.02105439280743759</v>
+        <v>0.04066717200277203</v>
       </c>
       <c r="F24">
-        <v>3.10544411638972</v>
+        <v>1.266011690994873</v>
       </c>
       <c r="G24">
-        <v>0.0008560238094791273</v>
+        <v>0.9940674499117677</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.007756659077866324</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07427576735070396</v>
+        <v>0.6843452054507964</v>
       </c>
       <c r="K24">
-        <v>2.063551795311952</v>
+        <v>0.7120192458078307</v>
       </c>
       <c r="L24">
-        <v>0.1585791874254241</v>
+        <v>0.06021067629823662</v>
       </c>
       <c r="M24">
-        <v>0.4005390604251815</v>
+        <v>1.38909083872116</v>
       </c>
       <c r="N24">
-        <v>2.899706695558677</v>
+        <v>0.2097750953172692</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.3083858629533438</v>
+      </c>
+      <c r="P24">
+        <v>1.186704420021385</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.909540844262665</v>
+        <v>1.209515165570451</v>
       </c>
       <c r="C25">
-        <v>0.1300387324176313</v>
+        <v>0.114856806057702</v>
       </c>
       <c r="D25">
-        <v>0.002024494642450136</v>
+        <v>0.04688258391072253</v>
       </c>
       <c r="E25">
-        <v>0.02073732061320932</v>
+        <v>0.0365467995380282</v>
       </c>
       <c r="F25">
-        <v>2.889660667698379</v>
+        <v>1.187708728496986</v>
       </c>
       <c r="G25">
-        <v>0.000868695819744896</v>
+        <v>0.9309225416065487</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01327363739271886</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07537793627650657</v>
+        <v>0.6645234552036072</v>
       </c>
       <c r="K25">
-        <v>1.721393491688019</v>
+        <v>0.6917193432279021</v>
       </c>
       <c r="L25">
-        <v>0.1403145832645478</v>
+        <v>0.05583663457410015</v>
       </c>
       <c r="M25">
-        <v>0.3419067465798307</v>
+        <v>1.138722954892955</v>
       </c>
       <c r="N25">
-        <v>2.908038888284707</v>
+        <v>0.1784841632917207</v>
       </c>
       <c r="O25">
+        <v>0.2563369511494251</v>
+      </c>
+      <c r="P25">
+        <v>1.258309222606854</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.020999093616467</v>
+        <v>0.9490778611136932</v>
       </c>
       <c r="C2">
-        <v>0.09756940449699414</v>
+        <v>0.1082056596576138</v>
       </c>
       <c r="D2">
-        <v>0.0402156844272028</v>
+        <v>0.04518506373516118</v>
       </c>
       <c r="E2">
-        <v>0.03351628965762465</v>
+        <v>0.03335410751127021</v>
       </c>
       <c r="F2">
-        <v>1.134064775939912</v>
+        <v>1.028201949582382</v>
       </c>
       <c r="G2">
-        <v>0.8882171833097914</v>
+        <v>0.7812416381497513</v>
       </c>
       <c r="H2">
-        <v>0.01853741864974268</v>
+        <v>0.01498176121077172</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6521073326937596</v>
+        <v>0.5964977006315308</v>
       </c>
       <c r="K2">
-        <v>0.679155268762301</v>
+        <v>0.5858316403180766</v>
       </c>
       <c r="L2">
-        <v>0.05257220256512696</v>
+        <v>0.2434941161966577</v>
       </c>
       <c r="M2">
-        <v>0.9557945536298007</v>
+        <v>0.1968810409315225</v>
       </c>
       <c r="N2">
-        <v>0.1555139733591346</v>
+        <v>0.04982757277263516</v>
       </c>
       <c r="O2">
-        <v>0.2182530807622847</v>
+        <v>0.9436567397105478</v>
       </c>
       <c r="P2">
-        <v>1.314299546241024</v>
+        <v>0.1760867826601427</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2129714113415879</v>
+      </c>
+      <c r="R2">
+        <v>1.211523754582492</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8939230390566024</v>
+        <v>0.832336807512263</v>
       </c>
       <c r="C3">
-        <v>0.08590143389110949</v>
+        <v>0.09308162288976973</v>
       </c>
       <c r="D3">
-        <v>0.0357086584064561</v>
+        <v>0.04016576357255275</v>
       </c>
       <c r="E3">
-        <v>0.03145620743434385</v>
+        <v>0.03151610693742324</v>
       </c>
       <c r="F3">
-        <v>1.099973995326735</v>
+        <v>1.001183507341928</v>
       </c>
       <c r="G3">
-        <v>0.8613990098566546</v>
+        <v>0.7646421701481216</v>
       </c>
       <c r="H3">
-        <v>0.0227922357692919</v>
+        <v>0.01845425255892502</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.644945454561821</v>
+        <v>0.587040685966528</v>
       </c>
       <c r="K3">
-        <v>0.6720050609862795</v>
+        <v>0.5828425519407077</v>
       </c>
       <c r="L3">
-        <v>0.05032072556365641</v>
+        <v>0.2465106114163689</v>
       </c>
       <c r="M3">
-        <v>0.8324557918197684</v>
+        <v>0.1932479764443578</v>
       </c>
       <c r="N3">
-        <v>0.1399619095676456</v>
+        <v>0.04789189532110605</v>
       </c>
       <c r="O3">
-        <v>0.1925497552909441</v>
+        <v>0.822531559485526</v>
       </c>
       <c r="P3">
-        <v>1.354187325754392</v>
+        <v>0.1591899729610944</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1879791893773763</v>
+      </c>
+      <c r="R3">
+        <v>1.250181805293431</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8161637638334867</v>
+        <v>0.7606317943971987</v>
       </c>
       <c r="C4">
-        <v>0.07874926844904451</v>
+        <v>0.08387148229152785</v>
       </c>
       <c r="D4">
-        <v>0.03294456932763978</v>
+        <v>0.03709528856045097</v>
       </c>
       <c r="E4">
-        <v>0.0301856535628815</v>
+        <v>0.03038044478495738</v>
       </c>
       <c r="F4">
-        <v>1.080085864088502</v>
+        <v>0.9853907286072783</v>
       </c>
       <c r="G4">
-        <v>0.845906287150612</v>
+        <v>0.75536224918703</v>
       </c>
       <c r="H4">
-        <v>0.02572434509329258</v>
+        <v>0.02085054809332298</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.6411331423891511</v>
+        <v>0.5814725566683308</v>
       </c>
       <c r="K4">
-        <v>0.6682502799330692</v>
+        <v>0.5814500028465801</v>
       </c>
       <c r="L4">
-        <v>0.04891534138984355</v>
+        <v>0.2484173625148465</v>
       </c>
       <c r="M4">
-        <v>0.7569622993714802</v>
+        <v>0.1918199921958852</v>
       </c>
       <c r="N4">
-        <v>0.130411759934681</v>
+        <v>0.04667988210986707</v>
       </c>
       <c r="O4">
-        <v>0.1768073943204449</v>
+        <v>0.748257916241414</v>
       </c>
       <c r="P4">
-        <v>1.37960675521121</v>
+        <v>0.1488405241558155</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1726482457940861</v>
+      </c>
+      <c r="R4">
+        <v>1.27475355374284</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7845336788871862</v>
+        <v>0.7313985094113207</v>
       </c>
       <c r="C5">
-        <v>0.07583614269082517</v>
+        <v>0.08013553420208552</v>
       </c>
       <c r="D5">
-        <v>0.03181869856445019</v>
+        <v>0.03584666254155167</v>
       </c>
       <c r="E5">
-        <v>0.02966611582233103</v>
+        <v>0.02991558301012631</v>
       </c>
       <c r="F5">
-        <v>1.072233577659432</v>
+        <v>0.9791472962410452</v>
       </c>
       <c r="G5">
-        <v>0.8398274326349338</v>
+        <v>0.7518000984672994</v>
       </c>
       <c r="H5">
-        <v>0.02699678420927076</v>
+        <v>0.02189122142865407</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.6397221430299282</v>
+        <v>0.5792613530135213</v>
       </c>
       <c r="K5">
-        <v>0.6668746947345063</v>
+        <v>0.5809900285334564</v>
       </c>
       <c r="L5">
-        <v>0.04833634477652549</v>
+        <v>0.2492078619992846</v>
       </c>
       <c r="M5">
-        <v>0.7262476071794026</v>
+        <v>0.1914372151019617</v>
       </c>
       <c r="N5">
-        <v>0.1265185728511966</v>
+        <v>0.04617963496430288</v>
       </c>
       <c r="O5">
-        <v>0.1704005022871371</v>
+        <v>0.718007529032775</v>
       </c>
       <c r="P5">
-        <v>1.390194388291313</v>
+        <v>0.1446283938910824</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1664030455327286</v>
+      </c>
+      <c r="R5">
+        <v>1.284973224992649</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7792847311859248</v>
+        <v>0.7265433817451026</v>
       </c>
       <c r="C6">
-        <v>0.07535246265403828</v>
+        <v>0.07951617238462916</v>
       </c>
       <c r="D6">
-        <v>0.03163177152098484</v>
+        <v>0.03563948028832442</v>
       </c>
       <c r="E6">
-        <v>0.02957972960101074</v>
+        <v>0.02983826009709123</v>
       </c>
       <c r="F6">
-        <v>1.070944660260722</v>
+        <v>0.9781219608757823</v>
       </c>
       <c r="G6">
-        <v>0.8388319175776218</v>
+        <v>0.7512215811293288</v>
       </c>
       <c r="H6">
-        <v>0.02721267763440727</v>
+        <v>0.02206783493183284</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.6394963272110488</v>
+        <v>0.5788976182805783</v>
       </c>
       <c r="K6">
-        <v>0.6666554624710734</v>
+        <v>0.5809200336302318</v>
       </c>
       <c r="L6">
-        <v>0.04823980816381557</v>
+        <v>0.2493399310779694</v>
       </c>
       <c r="M6">
-        <v>0.7211501620292609</v>
+        <v>0.1913856060007042</v>
       </c>
       <c r="N6">
-        <v>0.1258719937446244</v>
+        <v>0.04609617391746479</v>
       </c>
       <c r="O6">
-        <v>0.1693370927019835</v>
+        <v>0.712985263908422</v>
       </c>
       <c r="P6">
-        <v>1.391966163734455</v>
+        <v>0.1439292679947783</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1653661350810722</v>
+      </c>
+      <c r="R6">
+        <v>1.28668256174894</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8157369689310769</v>
+        <v>0.7596711427131311</v>
       </c>
       <c r="C7">
-        <v>0.07870997721788342</v>
+        <v>0.08350076969713882</v>
       </c>
       <c r="D7">
-        <v>0.03292938372354115</v>
+        <v>0.03722070784709075</v>
       </c>
       <c r="E7">
-        <v>0.03017865454644841</v>
+        <v>0.03039866911831801</v>
       </c>
       <c r="F7">
-        <v>1.07997895701218</v>
+        <v>0.9839373110047234</v>
       </c>
       <c r="G7">
-        <v>0.8458233691630852</v>
+        <v>0.7583834238557614</v>
       </c>
       <c r="H7">
-        <v>0.02574119514904039</v>
+        <v>0.02087789885467917</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.6411135418863267</v>
+        <v>0.5759741965675431</v>
       </c>
       <c r="K7">
-        <v>0.6682311094743767</v>
+        <v>0.5807131738021631</v>
       </c>
       <c r="L7">
-        <v>0.0489075589789616</v>
+        <v>0.2480938686287146</v>
       </c>
       <c r="M7">
-        <v>0.7565478827392838</v>
+        <v>0.1916010238185457</v>
       </c>
       <c r="N7">
-        <v>0.1303592622880032</v>
+        <v>0.04666170003282488</v>
       </c>
       <c r="O7">
-        <v>0.1767209575306694</v>
+        <v>0.7467919553332365</v>
       </c>
       <c r="P7">
-        <v>1.379748622131352</v>
+        <v>0.1487375236469646</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1724609996093882</v>
+      </c>
+      <c r="R7">
+        <v>1.274329501582059</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9771222179576284</v>
+        <v>0.9069262007849375</v>
       </c>
       <c r="C8">
-        <v>0.09354281365587269</v>
+        <v>0.1018902055609772</v>
       </c>
       <c r="D8">
-        <v>0.03866080266646321</v>
+        <v>0.04393154999131355</v>
       </c>
       <c r="E8">
-        <v>0.03280692804210084</v>
+        <v>0.03280450076717933</v>
       </c>
       <c r="F8">
-        <v>1.122087373339355</v>
+        <v>1.014198745347265</v>
       </c>
       <c r="G8">
-        <v>0.8787618258985646</v>
+        <v>0.7855858284151651</v>
       </c>
       <c r="H8">
-        <v>0.01993642759563807</v>
+        <v>0.01615979961948344</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6495136521772764</v>
+        <v>0.5753159989449301</v>
       </c>
       <c r="K8">
-        <v>0.6765547333696418</v>
+        <v>0.5823151403500368</v>
       </c>
       <c r="L8">
-        <v>0.05180034338915274</v>
+        <v>0.2435019258510422</v>
       </c>
       <c r="M8">
-        <v>0.9132118967775398</v>
+        <v>0.1946875511961821</v>
       </c>
       <c r="N8">
-        <v>0.1501511462540819</v>
+        <v>0.04912868224848754</v>
       </c>
       <c r="O8">
-        <v>0.2093812971189344</v>
+        <v>0.8983165892567797</v>
       </c>
       <c r="P8">
-        <v>1.327857517278751</v>
+        <v>0.1701016031717373</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2040044219243633</v>
+      </c>
+      <c r="R8">
+        <v>1.222953007791324</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.296172355994486</v>
+        <v>1.197866955236833</v>
       </c>
       <c r="C9">
-        <v>0.1228020565967824</v>
+        <v>0.1398041941145038</v>
       </c>
       <c r="D9">
-        <v>0.04994071603071859</v>
+        <v>0.05667578926389893</v>
       </c>
       <c r="E9">
-        <v>0.03793307923155176</v>
+        <v>0.03738961510479832</v>
       </c>
       <c r="F9">
-        <v>1.213429282122803</v>
+        <v>1.085217870801998</v>
       </c>
       <c r="G9">
-        <v>0.9515713121408282</v>
+        <v>0.8353824992048402</v>
       </c>
       <c r="H9">
-        <v>0.01121999474989097</v>
+        <v>0.009058320563218106</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6708472343540137</v>
+        <v>0.5955064715194851</v>
       </c>
       <c r="K9">
-        <v>0.6981703662777576</v>
+        <v>0.5918048860353338</v>
       </c>
       <c r="L9">
-        <v>0.05731521424110309</v>
+        <v>0.2361635081462268</v>
       </c>
       <c r="M9">
-        <v>1.222804826512174</v>
+        <v>0.2080073434861163</v>
       </c>
       <c r="N9">
-        <v>0.189009907832812</v>
+        <v>0.05384158313606591</v>
       </c>
       <c r="O9">
-        <v>0.2738265108130378</v>
+        <v>1.200454847627981</v>
       </c>
       <c r="P9">
-        <v>1.233668032105765</v>
+        <v>0.2124133805315935</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2664149752485976</v>
+      </c>
+      <c r="R9">
+        <v>1.131044964235985</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.525297364839389</v>
+        <v>1.402602195632397</v>
       </c>
       <c r="C10">
-        <v>0.1451997575265835</v>
+        <v>0.166666246475657</v>
       </c>
       <c r="D10">
-        <v>0.05736322271854277</v>
+        <v>0.06596496599827617</v>
       </c>
       <c r="E10">
-        <v>0.04052760352828599</v>
+        <v>0.03976718931657963</v>
       </c>
       <c r="F10">
-        <v>1.272813774354503</v>
+        <v>1.122389486077267</v>
       </c>
       <c r="G10">
-        <v>0.9993566930407525</v>
+        <v>0.8861708633698839</v>
       </c>
       <c r="H10">
-        <v>0.007010522563458021</v>
+        <v>0.00571681498541432</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6840876478346871</v>
+        <v>0.5771281251227975</v>
       </c>
       <c r="K10">
-        <v>0.7102954194096185</v>
+        <v>0.5914379750764027</v>
       </c>
       <c r="L10">
-        <v>0.06034908342629208</v>
+        <v>0.227518104609846</v>
       </c>
       <c r="M10">
-        <v>1.447905887099807</v>
+        <v>0.2180816519282267</v>
       </c>
       <c r="N10">
-        <v>0.2107431954005108</v>
+        <v>0.05648043967569816</v>
       </c>
       <c r="O10">
-        <v>0.316954651416161</v>
+        <v>1.413087034081116</v>
       </c>
       <c r="P10">
-        <v>1.164191127996808</v>
+        <v>0.235995721819819</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3074044865641099</v>
+      </c>
+      <c r="R10">
+        <v>1.062299608303297</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.563747223843677</v>
+        <v>1.436051998164515</v>
       </c>
       <c r="C11">
-        <v>0.1616181562922918</v>
+        <v>0.1793971632975087</v>
       </c>
       <c r="D11">
-        <v>0.05297262435741601</v>
+        <v>0.06279803429594466</v>
       </c>
       <c r="E11">
-        <v>0.03315464865437612</v>
+        <v>0.03278322412186441</v>
       </c>
       <c r="F11">
-        <v>1.183423136200744</v>
+        <v>1.027390686393915</v>
       </c>
       <c r="G11">
-        <v>0.9247630450630453</v>
+        <v>0.8585458767479963</v>
       </c>
       <c r="H11">
-        <v>0.02528347713926848</v>
+        <v>0.02416252704254518</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6419406416244726</v>
+        <v>0.4877188505467984</v>
       </c>
       <c r="K11">
-        <v>0.6543239069447964</v>
+        <v>0.5369033857421002</v>
       </c>
       <c r="L11">
-        <v>0.05761485586261772</v>
+        <v>0.2045850953060935</v>
       </c>
       <c r="M11">
-        <v>1.510773339884963</v>
+        <v>0.2013024947247501</v>
       </c>
       <c r="N11">
-        <v>0.1647929440825635</v>
+        <v>0.05564573274379558</v>
       </c>
       <c r="O11">
-        <v>0.2972917008245233</v>
+        <v>1.461871144215223</v>
       </c>
       <c r="P11">
-        <v>1.094423348056793</v>
+        <v>0.1860400033853082</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2869681968329374</v>
+      </c>
+      <c r="R11">
+        <v>1.008000798340129</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.54642966164846</v>
+        <v>1.422139448944193</v>
       </c>
       <c r="C12">
-        <v>0.1710521319822647</v>
+        <v>0.1857379491342499</v>
       </c>
       <c r="D12">
-        <v>0.04787628098974039</v>
+        <v>0.05771197436323661</v>
       </c>
       <c r="E12">
-        <v>0.02865408811326819</v>
+        <v>0.02843670173224</v>
       </c>
       <c r="F12">
-        <v>1.097050125868478</v>
+        <v>0.9465024595527467</v>
       </c>
       <c r="G12">
-        <v>0.8530976131891066</v>
+        <v>0.8123035166918839</v>
       </c>
       <c r="H12">
-        <v>0.06416876031438079</v>
+        <v>0.06305805524085883</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6040570990537901</v>
+        <v>0.4391279234172103</v>
       </c>
       <c r="K12">
-        <v>0.6059854943277188</v>
+        <v>0.4952762514502105</v>
       </c>
       <c r="L12">
-        <v>0.06035946594036012</v>
+        <v>0.1890565468771683</v>
       </c>
       <c r="M12">
-        <v>1.515207951332997</v>
+        <v>0.1860884364425104</v>
       </c>
       <c r="N12">
-        <v>0.1271800998438906</v>
+        <v>0.05994869484531229</v>
       </c>
       <c r="O12">
-        <v>0.2721607020858485</v>
+        <v>1.461168459750411</v>
       </c>
       <c r="P12">
-        <v>1.056904729833807</v>
+        <v>0.1450659499288278</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2620816589858741</v>
+      </c>
+      <c r="R12">
+        <v>0.9853949809659195</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.485242720709948</v>
+        <v>1.372479184174864</v>
       </c>
       <c r="C13">
-        <v>0.1755384875047383</v>
+        <v>0.1884346724142603</v>
       </c>
       <c r="D13">
-        <v>0.04197828681853366</v>
+        <v>0.05064405943920036</v>
       </c>
       <c r="E13">
-        <v>0.0260808697231022</v>
+        <v>0.02593321460637704</v>
       </c>
       <c r="F13">
-        <v>1.00789618237274</v>
+        <v>0.8735158927644591</v>
       </c>
       <c r="G13">
-        <v>0.7793654972641804</v>
+        <v>0.7423471487097117</v>
       </c>
       <c r="H13">
-        <v>0.1205817661441273</v>
+        <v>0.1193409148160214</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5671214482113953</v>
+        <v>0.420725583780488</v>
       </c>
       <c r="K13">
-        <v>0.5605650819158257</v>
+        <v>0.4617020943741466</v>
       </c>
       <c r="L13">
-        <v>0.06730401932856367</v>
+        <v>0.1778678737152539</v>
       </c>
       <c r="M13">
-        <v>1.474779722042911</v>
+        <v>0.1719044047339757</v>
       </c>
       <c r="N13">
-        <v>0.09400135721200087</v>
+        <v>0.06825506317092689</v>
       </c>
       <c r="O13">
-        <v>0.2415551720125215</v>
+        <v>1.425099119502022</v>
       </c>
       <c r="P13">
-        <v>1.040969100800214</v>
+        <v>0.1088904818197989</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2326777867793908</v>
+      </c>
+      <c r="R13">
+        <v>0.9829634502329476</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.422848723072974</v>
+        <v>1.321588521534494</v>
       </c>
       <c r="C14">
-        <v>0.1764363494034029</v>
+        <v>0.1886672297560494</v>
       </c>
       <c r="D14">
-        <v>0.03755524770432572</v>
+        <v>0.04497494631669241</v>
       </c>
       <c r="E14">
-        <v>0.02545345998125259</v>
+        <v>0.02537840813835013</v>
       </c>
       <c r="F14">
-        <v>0.9450182113469126</v>
+        <v>0.8258078048536177</v>
       </c>
       <c r="G14">
-        <v>0.7274737194792209</v>
+        <v>0.6849869689057613</v>
       </c>
       <c r="H14">
-        <v>0.1705978084255833</v>
+        <v>0.169196377924564</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5419818528689291</v>
+        <v>0.4188764745195854</v>
       </c>
       <c r="K14">
-        <v>0.5305410262798418</v>
+        <v>0.441657944995157</v>
       </c>
       <c r="L14">
-        <v>0.07471208216853853</v>
+        <v>0.1717212187350761</v>
       </c>
       <c r="M14">
-        <v>1.426338300893121</v>
+        <v>0.1625936131919232</v>
       </c>
       <c r="N14">
-        <v>0.07376748706306913</v>
+        <v>0.0764821946322094</v>
       </c>
       <c r="O14">
-        <v>0.217964593089583</v>
+        <v>1.383766605523391</v>
       </c>
       <c r="P14">
-        <v>1.040208335987477</v>
+        <v>0.08674277652237095</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2102818901151124</v>
+      </c>
+      <c r="R14">
+        <v>0.9898040631214293</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.398582480523174</v>
+        <v>1.301633775081001</v>
       </c>
       <c r="C15">
-        <v>0.1755451951974294</v>
+        <v>0.1878659232853579</v>
       </c>
       <c r="D15">
-        <v>0.0362958104041482</v>
+        <v>0.04323136920175585</v>
       </c>
       <c r="E15">
-        <v>0.02541352575791134</v>
+        <v>0.02537745714439632</v>
       </c>
       <c r="F15">
-        <v>0.9289981971737049</v>
+        <v>0.8151805962641063</v>
       </c>
       <c r="G15">
-        <v>0.7142883079148135</v>
+        <v>0.6673160305352468</v>
       </c>
       <c r="H15">
-        <v>0.1834281490775425</v>
+        <v>0.1819482478418166</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5360279806888713</v>
+        <v>0.4230695408848035</v>
       </c>
       <c r="K15">
-        <v>0.5236947664752343</v>
+        <v>0.4380143001868007</v>
       </c>
       <c r="L15">
-        <v>0.07663441398950255</v>
+        <v>0.1708532872799395</v>
       </c>
       <c r="M15">
-        <v>1.405174773157114</v>
+        <v>0.1604947094262741</v>
       </c>
       <c r="N15">
-        <v>0.0690867864939797</v>
+        <v>0.07857546449944763</v>
       </c>
       <c r="O15">
-        <v>0.2110357700198975</v>
+        <v>1.36606590473022</v>
       </c>
       <c r="P15">
-        <v>1.043629286426916</v>
+        <v>0.08163226344828445</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2037999455285835</v>
+      </c>
+      <c r="R15">
+        <v>0.9943772570720846</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.313523121322135</v>
+        <v>1.229713189895222</v>
       </c>
       <c r="C16">
-        <v>0.1647143078800042</v>
+        <v>0.1788446748172277</v>
       </c>
       <c r="D16">
-        <v>0.0344720250611843</v>
+        <v>0.03984557314742432</v>
       </c>
       <c r="E16">
-        <v>0.02486373706820588</v>
+        <v>0.02497999624701075</v>
       </c>
       <c r="F16">
-        <v>0.9220566755620467</v>
+        <v>0.8232021136866337</v>
       </c>
       <c r="G16">
-        <v>0.708886576587247</v>
+        <v>0.6362796704459726</v>
       </c>
       <c r="H16">
-        <v>0.1724337049643481</v>
+        <v>0.1705514666986687</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5377366748358128</v>
+        <v>0.4652051325499968</v>
       </c>
       <c r="K16">
-        <v>0.5276445435315367</v>
+        <v>0.4489291911729723</v>
       </c>
       <c r="L16">
-        <v>0.07359096738288429</v>
+        <v>0.1767362563509174</v>
       </c>
       <c r="M16">
-        <v>1.316938497126472</v>
+        <v>0.1616537689971373</v>
       </c>
       <c r="N16">
-        <v>0.06749330215121674</v>
+        <v>0.07537092799495326</v>
       </c>
       <c r="O16">
-        <v>0.1995529600710562</v>
+        <v>1.292232683408372</v>
       </c>
       <c r="P16">
-        <v>1.074014895916122</v>
+        <v>0.08023800042982998</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1936941201359161</v>
+      </c>
+      <c r="R16">
+        <v>1.019892923635364</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.281433595497049</v>
+        <v>1.200726283124908</v>
       </c>
       <c r="C17">
-        <v>0.1559715861261708</v>
+        <v>0.1712068338418078</v>
       </c>
       <c r="D17">
-        <v>0.03537492998302127</v>
+        <v>0.04031959122960416</v>
       </c>
       <c r="E17">
-        <v>0.02456912031940439</v>
+        <v>0.02468612327218511</v>
       </c>
       <c r="F17">
-        <v>0.9499713061581332</v>
+        <v>0.8536313928365331</v>
       </c>
       <c r="G17">
-        <v>0.7322193335439664</v>
+        <v>0.6458814599487965</v>
       </c>
       <c r="H17">
-        <v>0.1356685523777088</v>
+        <v>0.1335629243018417</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5524128713729937</v>
+        <v>0.4960371619329607</v>
       </c>
       <c r="K17">
-        <v>0.5465511695768193</v>
+        <v>0.4675918216125901</v>
       </c>
       <c r="L17">
-        <v>0.06689448937331477</v>
+        <v>0.1847391271383394</v>
       </c>
       <c r="M17">
-        <v>1.275113595887234</v>
+        <v>0.1670947560284297</v>
       </c>
       <c r="N17">
-        <v>0.07631972171720491</v>
+        <v>0.06814045147909198</v>
       </c>
       <c r="O17">
-        <v>0.2030743256951517</v>
+        <v>1.255933919044452</v>
       </c>
       <c r="P17">
-        <v>1.097781652797464</v>
+        <v>0.09018400589351216</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1975580610323604</v>
+      </c>
+      <c r="R17">
+        <v>1.037280972370871</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.290717997369029</v>
+        <v>1.206331097893354</v>
       </c>
       <c r="C18">
-        <v>0.1481189073523979</v>
+        <v>0.1647378890023532</v>
       </c>
       <c r="D18">
-        <v>0.03884199129952748</v>
+        <v>0.04398306963188503</v>
       </c>
       <c r="E18">
-        <v>0.02557181982261403</v>
+        <v>0.02554215977267971</v>
       </c>
       <c r="F18">
-        <v>1.012171500605049</v>
+        <v>0.9103808733075098</v>
       </c>
       <c r="G18">
-        <v>0.7838530320995147</v>
+        <v>0.6852954132228604</v>
       </c>
       <c r="H18">
-        <v>0.08308124510976711</v>
+        <v>0.08092077776353079</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5802776011961157</v>
+        <v>0.5279540769978155</v>
       </c>
       <c r="K18">
-        <v>0.5813558429950518</v>
+        <v>0.4970451965885019</v>
       </c>
       <c r="L18">
-        <v>0.05899744873971002</v>
+        <v>0.1963351448388941</v>
       </c>
       <c r="M18">
-        <v>1.267919570644807</v>
+        <v>0.1773401127559211</v>
       </c>
       <c r="N18">
-        <v>0.09809544401237957</v>
+        <v>0.05926967017818718</v>
       </c>
       <c r="O18">
-        <v>0.2203332660277226</v>
+        <v>1.249908214771352</v>
       </c>
       <c r="P18">
-        <v>1.121774787460555</v>
+        <v>0.1141692657762334</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.214523031470474</v>
+      </c>
+      <c r="R18">
+        <v>1.052355938056488</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.332445513229288</v>
+        <v>1.239711872946259</v>
       </c>
       <c r="C19">
-        <v>0.1416877985630407</v>
+        <v>0.1600795374993709</v>
       </c>
       <c r="D19">
-        <v>0.04433415308017885</v>
+        <v>0.05008117191339068</v>
       </c>
       <c r="E19">
-        <v>0.02920650575929074</v>
+        <v>0.02891071553461444</v>
       </c>
       <c r="F19">
-        <v>1.099867477813248</v>
+        <v>0.9871317152392649</v>
       </c>
       <c r="G19">
-        <v>0.8565567940492258</v>
+        <v>0.7450650125964273</v>
       </c>
       <c r="H19">
-        <v>0.03714142652879104</v>
+        <v>0.03509709150406337</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6176010889224273</v>
+        <v>0.5623151569319873</v>
       </c>
       <c r="K19">
-        <v>0.6280993320098247</v>
+        <v>0.5347825881813506</v>
       </c>
       <c r="L19">
-        <v>0.05466256974505068</v>
+        <v>0.2106106996664323</v>
       </c>
       <c r="M19">
-        <v>1.288832053216709</v>
+        <v>0.1913306551558911</v>
       </c>
       <c r="N19">
-        <v>0.1333307961427153</v>
+        <v>0.05353942171229953</v>
       </c>
       <c r="O19">
-        <v>0.2482481586527321</v>
+        <v>1.269445717391278</v>
       </c>
       <c r="P19">
-        <v>1.148963933088783</v>
+        <v>0.1525498773486689</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.241701032491914</v>
+      </c>
+      <c r="R19">
+        <v>1.068180824750085</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.464659662983536</v>
+        <v>1.350661007437367</v>
       </c>
       <c r="C20">
-        <v>0.1393251811354759</v>
+        <v>0.1608135837312261</v>
       </c>
       <c r="D20">
-        <v>0.0553736040007351</v>
+        <v>0.06294191656217407</v>
       </c>
       <c r="E20">
-        <v>0.03979405350377618</v>
+        <v>0.03900294811723981</v>
       </c>
       <c r="F20">
-        <v>1.25620983595708</v>
+        <v>1.116600713930794</v>
       </c>
       <c r="G20">
-        <v>0.9859149189259568</v>
+        <v>0.8607028869892162</v>
       </c>
       <c r="H20">
-        <v>0.007985631644467528</v>
+        <v>0.006465353801614171</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6801351173671577</v>
+        <v>0.5999045289705549</v>
       </c>
       <c r="K20">
-        <v>0.7065431721516688</v>
+        <v>0.5935970384987357</v>
       </c>
       <c r="L20">
-        <v>0.05950772364227852</v>
+        <v>0.2305395233293339</v>
       </c>
       <c r="M20">
-        <v>1.38844621131426</v>
+        <v>0.2160634443857248</v>
       </c>
       <c r="N20">
-        <v>0.204742124236688</v>
+        <v>0.05578688983254487</v>
       </c>
       <c r="O20">
-        <v>0.3054176172730791</v>
+        <v>1.360935410417284</v>
       </c>
       <c r="P20">
-        <v>1.181828617503918</v>
+        <v>0.2296470136782602</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2968290696055007</v>
+      </c>
+      <c r="R20">
+        <v>1.081332712147542</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.653046898998554</v>
+        <v>1.506255842520829</v>
       </c>
       <c r="C21">
-        <v>0.1555644417445023</v>
+        <v>0.1745013556716799</v>
       </c>
       <c r="D21">
-        <v>0.06250015762014272</v>
+        <v>0.07463332334341999</v>
       </c>
       <c r="E21">
-        <v>0.04362098291201022</v>
+        <v>0.0431083509666319</v>
       </c>
       <c r="F21">
-        <v>1.325223893992543</v>
+        <v>1.13943771275018</v>
       </c>
       <c r="G21">
-        <v>1.042304881950372</v>
+        <v>0.9792005099281909</v>
       </c>
       <c r="H21">
-        <v>0.004815135044139995</v>
+        <v>0.003969094141721419</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7002766062223174</v>
+        <v>0.504415874472727</v>
       </c>
       <c r="K21">
-        <v>0.7284673991754218</v>
+        <v>0.5898896624133343</v>
       </c>
       <c r="L21">
-        <v>0.06331507486825849</v>
+        <v>0.22271306234747</v>
       </c>
       <c r="M21">
-        <v>1.569102705862406</v>
+        <v>0.2232290308140179</v>
       </c>
       <c r="N21">
-        <v>0.2321869432414161</v>
+        <v>0.05871424924399626</v>
       </c>
       <c r="O21">
-        <v>0.3457534884855704</v>
+        <v>1.510124972834689</v>
       </c>
       <c r="P21">
-        <v>1.138228566592332</v>
+        <v>0.2584779230578818</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3331844012239316</v>
+      </c>
+      <c r="R21">
+        <v>1.027354456580271</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.772983870956551</v>
+        <v>1.603933462628731</v>
       </c>
       <c r="C22">
-        <v>0.1666021251020453</v>
+        <v>0.1832389624951816</v>
       </c>
       <c r="D22">
-        <v>0.06671056808416864</v>
+        <v>0.08214981858343862</v>
       </c>
       <c r="E22">
-        <v>0.04553030173436845</v>
+        <v>0.04529617789850882</v>
       </c>
       <c r="F22">
-        <v>1.364652385936537</v>
+        <v>1.147119299968722</v>
       </c>
       <c r="G22">
-        <v>1.074618300551876</v>
+        <v>1.061944624807779</v>
       </c>
       <c r="H22">
-        <v>0.003319011103445124</v>
+        <v>0.002797318178544783</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7112324577963989</v>
+        <v>0.4435627076207709</v>
       </c>
       <c r="K22">
-        <v>0.7398276381095386</v>
+        <v>0.5839876896694562</v>
       </c>
       <c r="L22">
-        <v>0.0653119361301151</v>
+        <v>0.2164829757028741</v>
       </c>
       <c r="M22">
-        <v>1.685512561243712</v>
+        <v>0.2268764709271061</v>
       </c>
       <c r="N22">
-        <v>0.2466471723203085</v>
+        <v>0.0602668285793122</v>
       </c>
       <c r="O22">
-        <v>0.36989339809287</v>
+        <v>1.603823564612156</v>
       </c>
       <c r="P22">
-        <v>1.108057334441988</v>
+        <v>0.2735106495234447</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3545394391501446</v>
+      </c>
+      <c r="R22">
+        <v>0.9913608190445995</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.708907294990269</v>
+        <v>1.55338342588243</v>
       </c>
       <c r="C23">
-        <v>0.1607030812137538</v>
+        <v>0.1794586019422013</v>
       </c>
       <c r="D23">
-        <v>0.06446172973067377</v>
+        <v>0.07769933376065552</v>
       </c>
       <c r="E23">
-        <v>0.04451018637420923</v>
+        <v>0.04404814052468353</v>
       </c>
       <c r="F23">
-        <v>1.34348111747795</v>
+        <v>1.146514680023699</v>
       </c>
       <c r="G23">
-        <v>1.057249623804225</v>
+        <v>1.008073412158211</v>
       </c>
       <c r="H23">
-        <v>0.00408037284471241</v>
+        <v>0.003385874653349163</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7053183985480587</v>
+        <v>0.4857899990507377</v>
       </c>
       <c r="K23">
-        <v>0.7336908984182458</v>
+        <v>0.5889320508238782</v>
       </c>
       <c r="L23">
-        <v>0.06424586611259286</v>
+        <v>0.2204050533363784</v>
       </c>
       <c r="M23">
-        <v>1.623318002799948</v>
+        <v>0.2256384768333319</v>
       </c>
       <c r="N23">
-        <v>0.2389245274614922</v>
+        <v>0.0594583839464784</v>
       </c>
       <c r="O23">
-        <v>0.3569985687596642</v>
+        <v>1.556756893746041</v>
       </c>
       <c r="P23">
-        <v>1.124067427787089</v>
+        <v>0.2656052164331868</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.343429378384613</v>
+      </c>
+      <c r="R23">
+        <v>1.011443923497632</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.467548118347025</v>
+        <v>1.3528602436227</v>
       </c>
       <c r="C24">
-        <v>0.138523152756548</v>
+        <v>0.1601806791453129</v>
       </c>
       <c r="D24">
-        <v>0.05597831212771354</v>
+        <v>0.0635932744997163</v>
       </c>
       <c r="E24">
-        <v>0.04066717200277203</v>
+        <v>0.03983959871632514</v>
       </c>
       <c r="F24">
-        <v>1.266011690994873</v>
+        <v>1.125367175193148</v>
       </c>
       <c r="G24">
-        <v>0.9940674499117677</v>
+        <v>0.86700836895686</v>
       </c>
       <c r="H24">
-        <v>0.007756659077866324</v>
+        <v>0.006249087006991394</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6843452054507964</v>
+        <v>0.604448979572453</v>
       </c>
       <c r="K24">
-        <v>0.7120192458078307</v>
+        <v>0.598133760983913</v>
       </c>
       <c r="L24">
-        <v>0.06021067629823662</v>
+        <v>0.2323151468249449</v>
       </c>
       <c r="M24">
-        <v>1.38909083872116</v>
+        <v>0.2176741310924761</v>
       </c>
       <c r="N24">
-        <v>0.2097750953172692</v>
+        <v>0.05629802536441986</v>
       </c>
       <c r="O24">
-        <v>0.3083858629533438</v>
+        <v>1.361623643789329</v>
       </c>
       <c r="P24">
-        <v>1.186704420021385</v>
+        <v>0.2350690756154847</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2997321711304934</v>
+      </c>
+      <c r="R24">
+        <v>1.084736708092144</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.209515165570451</v>
+        <v>1.119924225674964</v>
       </c>
       <c r="C25">
-        <v>0.114856806057702</v>
+        <v>0.1299347416734378</v>
       </c>
       <c r="D25">
-        <v>0.04688258391072253</v>
+        <v>0.0530057889926141</v>
       </c>
       <c r="E25">
-        <v>0.0365467995380282</v>
+        <v>0.03611559132383135</v>
       </c>
       <c r="F25">
-        <v>1.187708728496986</v>
+        <v>1.067158451630334</v>
       </c>
       <c r="G25">
-        <v>0.9309225416065487</v>
+        <v>0.8165808042972742</v>
       </c>
       <c r="H25">
-        <v>0.01327363739271886</v>
+        <v>0.01071685706839025</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6645234552036072</v>
+        <v>0.5973681578632437</v>
       </c>
       <c r="K25">
-        <v>0.6917193432279021</v>
+        <v>0.5898272798852275</v>
       </c>
       <c r="L25">
-        <v>0.05583663457410015</v>
+        <v>0.2384959889336216</v>
       </c>
       <c r="M25">
-        <v>1.138722954892955</v>
+        <v>0.2040513185241863</v>
       </c>
       <c r="N25">
-        <v>0.1784841632917207</v>
+        <v>0.05259605518604893</v>
       </c>
       <c r="O25">
-        <v>0.2563369511494251</v>
+        <v>1.120079286998646</v>
       </c>
       <c r="P25">
-        <v>1.258309222606854</v>
+        <v>0.2009986857017836</v>
       </c>
       <c r="Q25">
+        <v>0.2496523340409951</v>
+      </c>
+      <c r="R25">
+        <v>1.155831662213403</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
